--- a/Healthcare/AbbVie.xlsx
+++ b/Healthcare/AbbVie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Value/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BFB5DA-1081-CD48-8056-59EABF79F58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B170643-F990-504E-8C73-544DAC1DD1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="27620" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -47,11 +47,18 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
+  <futureMetadata name="XLRICHVALUE" count="2">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
         </ext>
       </extLst>
     </bk>
@@ -61,16 +68,19 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
+  <valueMetadata count="2">
     <bk>
       <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -352,9 +362,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>AbbVie</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -895,7 +902,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -964,13 +971,7 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1003,16 +1004,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1032,9 +1032,9 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2229,12 +2229,128 @@
       </key>
     </keyFlags>
   </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
 </rvTypesInfo>
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
   <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1mpqh&amp;q=XNYS%3aABBV&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>ABBVIE INC. (XNYS:ABBV)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a1mpqh</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>168.11</v>
+    <v>134.09</v>
+    <v>0.55359999999999998</v>
+    <v>0.17</v>
+    <v>1.1609999999999999E-3</v>
+    <v>0.16</v>
+    <v>1.091E-3</v>
+    <v>USD</v>
+    <v>AbbVie Inc. (AbbVie) is a diversified research-based biopharmaceutical company. The Company is engaged in the research and development, manufacturing, commercialization and sale of medicines and therapies. It offers products in various therapeutic categories, including immunology products, which include Humira, Skyrizi and Rinvoq; oncology products, which include Imbruvica and Venclexta/Venclyxto; aesthetics products that include Botox Cosmetic, The Juvederm Collection of Fillers and others; neuroscience products, such as Botox Therapeutic, Vraylar, Duopa and Duodopa, and Ubrelvy; eye care products, which consists of Lumigan/Ganfort, Alphagan/Combigan and Restasis, and other key products, which include Mavyret/Maviret, Creon, Lupron, Linzess/Constella and Synthroid. Its products are sold to wholesalers, distributors, government agencies, health care facilities, specialty pharmacies, and independent retailers from the AbbVie-owned distribution centers and public warehouses.</v>
+    <v>50000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>1 N Waukegan Rd, NORTH CHICAGO, IL, 60064 US</v>
+    <v>147.57</v>
+    <v>Pharmaceuticals</v>
+    <v>Stock</v>
+    <v>45057.997410775002</v>
+    <v>0</v>
+    <v>145.19</v>
+    <v>258627271100</v>
+    <v>ABBVIE INC.</v>
+    <v>ABBVIE INC.</v>
+    <v>147.29</v>
+    <v>34.547400000000003</v>
+    <v>146.41999999999999</v>
+    <v>146.59</v>
+    <v>146.75</v>
+    <v>1764290000</v>
+    <v>ABBV</v>
+    <v>ABBVIE INC. (XNYS:ABBV)</v>
+    <v>4300537</v>
+    <v>5235980</v>
+    <v>2012</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+  <rv s="3">
     <v>65</v>
     <v>8</v>
     <v>11</v>
@@ -2244,7 +2360,61 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
   <s t="_error">
     <k n="colOffset" t="i"/>
     <k n="errorType" t="i"/>
@@ -2252,6 +2422,226 @@
     <k n="subType" t="i"/>
   </s>
 </rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2554,10 +2944,10 @@
   <dimension ref="A1:X118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomRight" activeCell="R95" sqref="R95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2568,8 +2958,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2009</v>
@@ -2753,21 +3143,21 @@
         <v>61814000000</v>
       </c>
       <c r="U3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="V3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="W3" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="W3" s="19" t="s">
+      <c r="X3" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="X3" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -2953,16 +3343,16 @@
         <v>40640000000</v>
       </c>
       <c r="U6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="V6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="V6" s="19" t="s">
+      <c r="W6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="W6" s="19" t="s">
+      <c r="X6" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="X6" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -3077,7 +3467,7 @@
     </row>
     <row r="9" spans="1:24" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3136,16 +3526,16 @@
         <v>0.112136975918972</v>
       </c>
       <c r="U9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="V9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="V9" s="19" t="s">
+      <c r="W9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="W9" s="19" t="s">
+      <c r="X9" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="X9" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -3233,7 +3623,7 @@
       <c r="G11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="1" t="e" cm="1" vm="1">
+      <c r="H11" s="1" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="H11" ca="1">- -P2:CC13</f>
         <v>#VALUE!</v>
       </c>
@@ -3306,21 +3696,21 @@
         <v>15260000000</v>
       </c>
       <c r="U12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="V12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="V12" s="19" t="s">
+      <c r="W12" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="W12" s="19" t="s">
+      <c r="X12" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="X12" s="19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3489,16 +3879,16 @@
         <v>21826000000</v>
       </c>
       <c r="U15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="V15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="V15" s="19" t="s">
+      <c r="W15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="W15" s="19" t="s">
+      <c r="X15" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="X15" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -3553,15 +3943,15 @@
       </c>
       <c r="V16" s="29">
         <f>W101/O3</f>
-        <v>4.5629413993867782</v>
+        <v>4.4549431753195297</v>
       </c>
       <c r="W16" s="29">
         <f>W101/O28</f>
-        <v>22.380618452179789</v>
+        <v>21.850901579925651</v>
       </c>
       <c r="X16" s="30">
         <f>W101/O106</f>
-        <v>10.924488617617948</v>
+        <v>10.665921770867701</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -3658,7 +4048,7 @@
         <v>8467000000</v>
       </c>
       <c r="U18" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -3707,14 +4097,14 @@
       <c r="O19" s="10">
         <v>11424000000</v>
       </c>
-      <c r="U19" s="66">
+      <c r="U19" s="54">
         <f>O40-O56-O61</f>
         <v>-54042000000</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4148,7 +4538,7 @@
     </row>
     <row r="29" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4441,7 +4831,7 @@
     </row>
     <row r="35" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -6567,7 +6957,7 @@
     </row>
     <row r="80" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15">
         <f t="shared" ref="B80:O80" si="6">B79/B3</f>
@@ -6766,10 +7156,10 @@
       <c r="O83" s="1">
         <v>-686000000</v>
       </c>
-      <c r="V83" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="W83" s="63"/>
+      <c r="V83" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="W83" s="58"/>
     </row>
     <row r="84" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6817,10 +7207,10 @@
       <c r="O84" s="1">
         <v>1605000000</v>
       </c>
-      <c r="V84" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="W84" s="65"/>
+      <c r="V84" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="W84" s="60"/>
     </row>
     <row r="85" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6869,7 +7259,7 @@
         <v>92</v>
       </c>
       <c r="V85" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W85" s="24">
         <f>O17</f>
@@ -6923,7 +7313,7 @@
         <v>92</v>
       </c>
       <c r="V86" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W86" s="24">
         <f>O56</f>
@@ -6977,7 +7367,7 @@
         <v>24943000000</v>
       </c>
       <c r="V87" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W87" s="24">
         <f>O61</f>
@@ -7031,7 +7421,7 @@
         <v>-695000000</v>
       </c>
       <c r="V88" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W88" s="32">
         <f>W85/(W86+W87)</f>
@@ -7040,7 +7430,7 @@
     </row>
     <row r="89" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="15">
         <f t="shared" ref="B89:O89" si="7">(-1*B88)/B3</f>
@@ -7099,7 +7489,7 @@
         <v>1.1971612636510835E-2</v>
       </c>
       <c r="V89" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W89" s="24">
         <f>O27</f>
@@ -7207,7 +7597,7 @@
         <v>-1438000000</v>
       </c>
       <c r="V91" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W91" s="32">
         <f>W89/W90</f>
@@ -7261,7 +7651,7 @@
         <v>1530000000</v>
       </c>
       <c r="V92" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W92" s="34">
         <f>W88*(1-W91)</f>
@@ -7314,10 +7704,10 @@
       <c r="O93" s="1">
         <v>235000000</v>
       </c>
-      <c r="V93" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="W93" s="65"/>
+      <c r="V93" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="W93" s="60"/>
     </row>
     <row r="94" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7366,7 +7756,7 @@
         <v>-623000000</v>
       </c>
       <c r="V94" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W94" s="35">
         <v>4.095E-2</v>
@@ -7418,11 +7808,12 @@
       <c r="O95" s="1">
         <v>-14433000000</v>
       </c>
-      <c r="V95" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="W95" s="37">
-        <v>0.59</v>
+      <c r="V95" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="W95" s="61" cm="1">
+        <f t="array" ref="W95">_FV(A1,"Beta")</f>
+        <v>0.55359999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -7472,7 +7863,7 @@
         <v>92</v>
       </c>
       <c r="V96" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W96" s="35">
         <v>8.4000000000000005E-2</v>
@@ -7525,11 +7916,11 @@
         <v>-1487000000</v>
       </c>
       <c r="V97" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W97" s="34">
         <f>(W94)+((W95)*(W96-W94))</f>
-        <v>6.6349500000000006E-2</v>
+        <v>6.4782480000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -7578,10 +7969,10 @@
       <c r="O98" s="1">
         <v>-10043000000</v>
       </c>
-      <c r="V98" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="W98" s="65"/>
+      <c r="V98" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="W98" s="60"/>
     </row>
     <row r="99" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7630,7 +8021,7 @@
         <v>1160000000</v>
       </c>
       <c r="V99" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="W99" s="24">
         <f>W86+W87</f>
@@ -7684,11 +8075,11 @@
         <v>-24803000000</v>
       </c>
       <c r="V100" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W100" s="32">
         <f>W99/W103</f>
-        <v>0.19280063869725261</v>
+        <v>0.19655588637922325</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -7737,11 +8128,12 @@
       <c r="O101" s="1">
         <v>-62000000</v>
       </c>
-      <c r="V101" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="W101" s="38">
-        <v>264897000000</v>
+      <c r="V101" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="W101" s="47" cm="1">
+        <f t="array" ref="W101">_FV(A1,"Market cap",TRUE)</f>
+        <v>258627271100</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -7791,11 +8183,11 @@
         <v>-545000000</v>
       </c>
       <c r="V102" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="W102" s="32">
         <f>W101/W103</f>
-        <v>0.80719936130274739</v>
+        <v>0.80344411362077672</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -7845,11 +8237,11 @@
         <v>9746000000</v>
       </c>
       <c r="V103" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="W103" s="39">
+        <v>143</v>
+      </c>
+      <c r="W103" s="36">
         <f>W99+W101</f>
-        <v>328168000000</v>
+        <v>321898271100</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -7898,14 +8290,14 @@
       <c r="O104" s="11">
         <v>9201000000</v>
       </c>
-      <c r="V104" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="W104" s="65"/>
+      <c r="V104" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="W104" s="60"/>
     </row>
     <row r="105" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15">
@@ -7967,11 +8359,11 @@
       <c r="T105" s="15"/>
       <c r="U105" s="15"/>
       <c r="V105" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W105" s="26">
         <f>(W100*W92)+(W102*W97)</f>
-        <v>4.8083000441001798E-2</v>
+        <v>4.6468204236071162E-2</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8020,33 +8412,33 @@
       <c r="O106" s="1">
         <v>24248000000</v>
       </c>
-      <c r="P106" s="40">
+      <c r="P106" s="62">
         <f>O106*(1+$W$106)</f>
         <v>24598432101.52042</v>
       </c>
-      <c r="Q106" s="40">
+      <c r="Q106" s="62">
         <f t="shared" ref="Q106:T106" si="9">P106*(1+$W$106)</f>
         <v>24953928647.851791</v>
       </c>
-      <c r="R106" s="40">
+      <c r="R106" s="62">
         <f t="shared" si="9"/>
         <v>25314562830.351681</v>
       </c>
-      <c r="S106" s="40">
+      <c r="S106" s="62">
         <f t="shared" si="9"/>
         <v>25680408898.13916</v>
       </c>
-      <c r="T106" s="40">
+      <c r="T106" s="62">
         <f t="shared" si="9"/>
         <v>26051542173.381596</v>
       </c>
-      <c r="U106" s="41" t="s">
+      <c r="U106" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="V106" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="V106" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="W106" s="43">
+      <c r="W106" s="39">
         <f>(SUM(P4:T4)/5)</f>
         <v>1.4452000227664819E-2</v>
       </c>
@@ -8067,138 +8459,139 @@
       <c r="M107" s="13"/>
       <c r="N107" s="13"/>
       <c r="O107" s="13"/>
-      <c r="P107" s="41"/>
-      <c r="Q107" s="41"/>
-      <c r="R107" s="41"/>
-      <c r="S107" s="41"/>
-      <c r="T107" s="44">
+      <c r="P107" s="37"/>
+      <c r="Q107" s="37"/>
+      <c r="R107" s="37"/>
+      <c r="S107" s="37"/>
+      <c r="T107" s="40">
         <f>T106*(1+W107)/(W108-W107)</f>
-        <v>1156818014017.1255</v>
-      </c>
-      <c r="U107" s="45" t="s">
+        <v>1003943175738.2252</v>
+      </c>
+      <c r="U107" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="V107" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="V107" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="W107" s="47">
-        <v>2.5000000000000001E-2</v>
+      <c r="W107" s="43">
+        <v>0.02</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="P108" s="44">
+      <c r="P108" s="40">
         <f t="shared" ref="P108:R108" si="10">P107+P106</f>
         <v>24598432101.52042</v>
       </c>
-      <c r="Q108" s="44">
+      <c r="Q108" s="40">
         <f t="shared" si="10"/>
         <v>24953928647.851791</v>
       </c>
-      <c r="R108" s="44">
+      <c r="R108" s="40">
         <f t="shared" si="10"/>
         <v>25314562830.351681</v>
       </c>
-      <c r="S108" s="44">
+      <c r="S108" s="40">
         <f>S107+S106</f>
         <v>25680408898.13916</v>
       </c>
-      <c r="T108" s="44">
+      <c r="T108" s="40">
         <f>T107+T106</f>
-        <v>1182869556190.5071</v>
-      </c>
-      <c r="U108" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="V108" s="48" t="s">
+        <v>1029994717911.6068</v>
+      </c>
+      <c r="U108" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="V108" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="W108" s="45">
+        <f>W105</f>
+        <v>4.6468204236071162E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="P109" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="W108" s="49">
-        <f>W105</f>
-        <v>4.8083000441001798E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="P109" s="60" t="s">
+      <c r="Q109" s="56"/>
+    </row>
+    <row r="110" spans="1:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="P110" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="Q109" s="61"/>
-    </row>
-    <row r="110" spans="1:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="P110" s="50" t="s">
+      <c r="Q110" s="47">
+        <f>NPV(W108,P108,Q108,R108,S108,T108)</f>
+        <v>910535463677.45728</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="P111" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="Q110" s="51">
-        <f>NPV(W108,P108,Q108,R108,S108,T108)</f>
-        <v>1024773192816.1041</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="P111" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q111" s="51">
+      <c r="Q111" s="47">
         <f>O40</f>
         <v>9229000000</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="P112" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q112" s="51">
+      <c r="P112" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q112" s="47">
         <f>W99</f>
         <v>63271000000</v>
       </c>
     </row>
     <row r="113" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P113" s="50" t="s">
+      <c r="P113" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q113" s="47">
+        <f>Q110+Q111-Q112</f>
+        <v>856493463677.45728</v>
+      </c>
+    </row>
+    <row r="114" spans="16:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="P114" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="Q113" s="51">
-        <f>Q110+Q111-Q112</f>
-        <v>970731192816.10413</v>
-      </c>
-    </row>
-    <row r="114" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P114" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q114" s="52">
+      <c r="Q114" s="48">
         <f>O34*(1+(5*U16))</f>
         <v>1993256476.9573853</v>
       </c>
     </row>
     <row r="115" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P115" s="53" t="s">
+      <c r="P115" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q115" s="50">
+        <f>Q113/Q114</f>
+        <v>429.6955628032652</v>
+      </c>
+    </row>
+    <row r="116" spans="16:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="P116" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="Q115" s="54">
-        <f>Q113/Q114</f>
-        <v>487.00767013078058</v>
-      </c>
-    </row>
-    <row r="116" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P116" s="55" t="s">
+      <c r="Q116" s="63" cm="1">
+        <f t="array" ref="Q116">_FV(A1,"Price")</f>
+        <v>146.59</v>
+      </c>
+    </row>
+    <row r="117" spans="16:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="P117" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="Q116" s="56">
-        <v>149.71</v>
-      </c>
-    </row>
-    <row r="117" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P117" s="57" t="s">
+      <c r="Q117" s="52">
+        <f>Q115/Q116-1</f>
+        <v>1.9312747309043261</v>
+      </c>
+    </row>
+    <row r="118" spans="16:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="P118" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="Q117" s="58">
-        <f>Q115/Q116-1</f>
-        <v>2.2530069476373025</v>
-      </c>
-    </row>
-    <row r="118" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P118" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q118" s="59" t="str">
+      <c r="Q118" s="53" t="str">
         <f>IF(Q115&gt;Q116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>

--- a/Healthcare/AbbVie.xlsx
+++ b/Healthcare/AbbVie.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B170643-F990-504E-8C73-544DAC1DD1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C1C9D1-E71D-594B-9D70-2AFB166A2154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -80,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -352,9 +355,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -403,9 +403,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -517,9 +514,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -560,17 +554,49 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -733,7 +759,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -839,22 +865,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -862,47 +879,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -944,97 +926,96 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,8 +1066,9 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>ABBV</a:t>
+              <a:t>AbbVie</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1123,10 +1105,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.3644227156215875E-2"/>
-          <c:y val="0.14216305514081828"/>
-          <c:w val="0.85251537049844528"/>
-          <c:h val="0.67886005597533905"/>
+          <c:x val="9.2112026359143326E-2"/>
+          <c:y val="0.13438561520463069"/>
+          <c:w val="0.83935420098846791"/>
+          <c:h val="0.65776324072174286"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1180,6 +1162,57 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$O$3</c:f>
@@ -1233,7 +1266,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1293-C745-BE1F-3A4F7AE4CC14}"/>
+              <c16:uniqueId val="{00000000-8BA1-9B4E-9238-886BAADE0469}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1242,11 +1275,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1284,60 +1317,111 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$O$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>6647809000</c:v>
+                  <c:v>4636515000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6020000000</c:v>
+                  <c:v>4178000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4940721000</c:v>
+                  <c:v>3433128000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6979000000</c:v>
+                  <c:v>5275000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6528000000</c:v>
+                  <c:v>4128000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3584000000</c:v>
+                  <c:v>1774000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8200000000</c:v>
+                  <c:v>5144000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10120000000</c:v>
+                  <c:v>5953000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10378000000</c:v>
+                  <c:v>5309000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8310000000</c:v>
+                  <c:v>5687000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12227000000</c:v>
+                  <c:v>7882000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12317000000</c:v>
+                  <c:v>4616000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23926000000</c:v>
+                  <c:v>11542000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11424000000</c:v>
+                  <c:v>11836000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1293-C745-BE1F-3A4F7AE4CC14}"/>
+              <c16:uniqueId val="{00000001-8BA1-9B4E-9238-886BAADE0469}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1346,11 +1430,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1388,9 +1472,60 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$O$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$O$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1441,7 +1576,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1293-C745-BE1F-3A4F7AE4CC14}"/>
+              <c16:uniqueId val="{00000002-8BA1-9B4E-9238-886BAADE0469}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1455,11 +1590,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="510365504"/>
-        <c:axId val="510367232"/>
+        <c:axId val="980654560"/>
+        <c:axId val="980656288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="510365504"/>
+        <c:axId val="980654560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1622,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1499,7 +1634,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510367232"/>
+        <c:crossAx val="980656288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1507,7 +1642,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="510367232"/>
+        <c:axId val="980656288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1555,7 +1690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510365504"/>
+        <c:crossAx val="980654560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1573,10 +1708,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35956148262213145"/>
-          <c:y val="0.8947411566344402"/>
-          <c:w val="0.30481718563523924"/>
-          <c:h val="5.9116089219921772E-2"/>
+          <c:x val="0.34362671717106208"/>
+          <c:y val="0.89893109611326127"/>
+          <c:w val="0.31274646188172112"/>
+          <c:h val="5.6762910825249271E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2156,22 +2291,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
+      <xdr:colOff>15874</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>1555750</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0352C859-E9C5-44E5-D67F-22F88E94D84C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0085CF09-57D0-DACC-5E37-AA1BF46D54E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2190,6 +2325,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2944,10 +3133,10 @@
   <dimension ref="A1:X118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R95" sqref="R95"/>
+      <selection pane="bottomRight" activeCell="Q96" sqref="Q96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3003,19 +3192,19 @@
       <c r="O1" s="8">
         <v>2022</v>
       </c>
-      <c r="P1" s="27">
+      <c r="P1" s="23">
         <v>2023</v>
       </c>
-      <c r="Q1" s="27">
+      <c r="Q1" s="23">
         <v>2024</v>
       </c>
-      <c r="R1" s="27">
+      <c r="R1" s="23">
         <v>2025</v>
       </c>
-      <c r="S1" s="27">
+      <c r="S1" s="23">
         <v>2026</v>
       </c>
-      <c r="T1" s="27">
+      <c r="T1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3024,55 +3213,55 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
@@ -3128,36 +3317,36 @@
         <v>58054000000</v>
       </c>
       <c r="P3" s="1">
-        <v>52493000000</v>
+        <v>52660000000</v>
       </c>
       <c r="Q3" s="1">
-        <v>52646000000</v>
+        <v>52367000000</v>
       </c>
       <c r="R3" s="1">
-        <v>56223000000</v>
+        <v>55021000000</v>
       </c>
       <c r="S3" s="1">
-        <v>59543000000</v>
+        <v>59536000000</v>
       </c>
       <c r="T3" s="1">
-        <v>61814000000</v>
+        <v>61940000000</v>
       </c>
       <c r="U3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="W3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="X3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="W3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="X3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3214,23 +3403,23 @@
       </c>
       <c r="P4" s="16">
         <f t="shared" si="0"/>
-        <v>-9.5790126434009748E-2</v>
+        <v>-9.2913494332862556E-2</v>
       </c>
       <c r="Q4" s="16">
         <f t="shared" si="0"/>
-        <v>2.9146743375307871E-3</v>
+        <v>-5.5639954424611116E-3</v>
       </c>
       <c r="R4" s="16">
         <f t="shared" si="0"/>
-        <v>6.7944383238992545E-2</v>
+        <v>5.0680772242060801E-2</v>
       </c>
       <c r="S4" s="16">
         <f t="shared" si="0"/>
-        <v>5.9050566494139423E-2</v>
+        <v>8.2059577252321825E-2</v>
       </c>
       <c r="T4" s="16">
         <f t="shared" si="0"/>
-        <v>3.8140503501671086E-2</v>
+        <v>4.0378930395055024E-2</v>
       </c>
       <c r="U4" s="17">
         <f>(O4+N4+M4)/3</f>
@@ -3245,7 +3434,7 @@
         <v>0.37051454233164199</v>
       </c>
       <c r="X4" s="17">
-        <f>(O105+N105+M105)/3</f>
+        <f>(O106+N106+M106)/3</f>
         <v>0.24232854088953512</v>
       </c>
     </row>
@@ -3343,16 +3532,16 @@
         <v>40640000000</v>
       </c>
       <c r="U6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="V6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="W6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="V6" s="19" t="s">
+      <c r="X6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="W6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="X6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -3414,7 +3603,7 @@
         <v>0.2039</v>
       </c>
       <c r="X7" s="20">
-        <f>O106/O3</f>
+        <f>O107/O3</f>
         <v>0.41768009094980535</v>
       </c>
     </row>
@@ -3467,7 +3656,7 @@
     </row>
     <row r="9" spans="1:24" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3526,16 +3715,16 @@
         <v>0.112136975918972</v>
       </c>
       <c r="U9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="V9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="V9" s="19" t="s">
+      <c r="W9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="W9" s="19" t="s">
+      <c r="X9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="X9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -3576,13 +3765,13 @@
         <v>6942000000</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="17">
         <f>O9</f>
@@ -3606,47 +3795,47 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="e" cm="1" vm="2">
         <f t="array" aca="1" ref="H11" ca="1">- -P2:CC13</f>
         <v>#VALUE!</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -3696,21 +3885,21 @@
         <v>15260000000</v>
       </c>
       <c r="U12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="W12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="V12" s="19" t="s">
+      <c r="X12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="W12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="X12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3790,31 +3979,31 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1">
         <v>750000000</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1">
         <v>500000000</v>
@@ -3823,7 +4012,7 @@
         <v>-890000000</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1">
         <v>432000000</v>
@@ -3879,16 +4068,16 @@
         <v>21826000000</v>
       </c>
       <c r="U15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="V15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="W15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="V15" s="19" t="s">
+      <c r="X15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="W15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="X15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -3937,7 +4126,7 @@
       <c r="O16" s="1">
         <v>39240000000</v>
       </c>
-      <c r="U16" s="28">
+      <c r="U16" s="24">
         <f>(O35+N35+M35+L35+K35)/5</f>
         <v>2.4213326991831857E-2</v>
       </c>
@@ -3949,23 +4138,23 @@
         <f>W101/O28</f>
         <v>21.850901579925651</v>
       </c>
-      <c r="X16" s="30">
-        <f>W101/O106</f>
+      <c r="X16" s="31">
+        <f>W101/O107</f>
         <v>10.665921770867701</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1">
         <v>104000000</v>
@@ -4001,7 +4190,7 @@
         <v>-2044000000</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4048,10 +4237,19 @@
         <v>8467000000</v>
       </c>
       <c r="U18" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="V18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="W18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="X18" s="19" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4097,14 +4295,41 @@
       <c r="O19" s="10">
         <v>11424000000</v>
       </c>
-      <c r="U19" s="54">
+      <c r="P19" s="56">
+        <v>25526000000</v>
+      </c>
+      <c r="Q19" s="56">
+        <v>25836000000</v>
+      </c>
+      <c r="R19" s="56">
+        <v>27888000000</v>
+      </c>
+      <c r="S19" s="56">
+        <v>29652000000</v>
+      </c>
+      <c r="T19" s="56">
+        <v>35502000000</v>
+      </c>
+      <c r="U19" s="27">
         <f>O40-O56-O61</f>
         <v>-54042000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V19" s="29">
+        <f>W101/P3</f>
+        <v>4.911266067223699</v>
+      </c>
+      <c r="W19" s="30">
+        <f>W101/P28</f>
+        <v>13.226310274112713</v>
+      </c>
+      <c r="X19" s="31">
+        <f>W101/P105</f>
+        <v>8.4382126890263738</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4120,7 +4345,7 @@
         <v>0.41254687321951589</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:O20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:T20" si="3">(F19/E19)-1</f>
         <v>-6.4622438744805888E-2</v>
       </c>
       <c r="G20" s="15">
@@ -4159,8 +4384,28 @@
         <f t="shared" si="3"/>
         <v>-0.52252779403159744</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="P20" s="16">
+        <f t="shared" si="3"/>
+        <v>1.2344187675070026</v>
+      </c>
+      <c r="Q20" s="16">
+        <f t="shared" si="3"/>
+        <v>1.2144480137898706E-2</v>
+      </c>
+      <c r="R20" s="16">
+        <f t="shared" si="3"/>
+        <v>7.9424059451927542E-2</v>
+      </c>
+      <c r="S20" s="16">
+        <f t="shared" si="3"/>
+        <v>6.3253012048192669E-2</v>
+      </c>
+      <c r="T20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.19728854714690414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4206,8 +4451,34 @@
       <c r="O21" s="2">
         <v>0.1968</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="P21" s="57">
+        <f>P19/P3</f>
+        <v>0.48473224458792252</v>
+      </c>
+      <c r="Q21" s="57">
+        <f t="shared" ref="Q21:T21" si="4">Q19/Q3</f>
+        <v>0.49336414153951919</v>
+      </c>
+      <c r="R21" s="57">
+        <f t="shared" si="4"/>
+        <v>0.50686101670271355</v>
+      </c>
+      <c r="S21" s="57">
+        <f t="shared" si="4"/>
+        <v>0.49805159903251817</v>
+      </c>
+      <c r="T21" s="57">
+        <f t="shared" si="4"/>
+        <v>0.57316758153051339</v>
+      </c>
+      <c r="W21" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="X21" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -4253,8 +4524,16 @@
       <c r="O22" s="10">
         <v>18814000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="W22" s="32">
+        <f>(-1*O98)/W101</f>
+        <v>3.8831945128156284E-2</v>
+      </c>
+      <c r="X22" s="33">
+        <f>O107/W101</f>
+        <v>9.3756547392963616E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -4301,7 +4580,7 @@
         <v>0.3241</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -4348,7 +4627,7 @@
         <v>-5337000000</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -4395,7 +4674,7 @@
         <v>13477000000</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -4442,7 +4721,7 @@
         <v>0.2321</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -4489,7 +4768,7 @@
         <v>1632000000</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -4535,10 +4814,25 @@
       <c r="O28" s="11">
         <v>11836000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P28" s="58">
+        <v>19554000000</v>
+      </c>
+      <c r="Q28" s="58">
+        <v>19609000000</v>
+      </c>
+      <c r="R28" s="58">
+        <v>21614000000</v>
+      </c>
+      <c r="S28" s="58">
+        <v>23131000000</v>
+      </c>
+      <c r="T28" s="58">
+        <v>25765000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4554,47 +4848,67 @@
         <v>0.53649965862036031</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:O29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:T29" si="5">(F28/E28)-1</f>
         <v>-0.21744075829383891</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.57025193798449614</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8996617812852312</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15727060653188185</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.10818074920208298</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.1199849312488128E-2</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.38596799718656594</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.41436183709718344</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5004332755632581</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5472188528851136E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="P29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.65207840486650892</v>
+      </c>
+      <c r="Q29" s="16">
+        <f t="shared" si="5"/>
+        <v>2.8127237393884563E-3</v>
+      </c>
+      <c r="R29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.10224896731092858</v>
+      </c>
+      <c r="S29" s="16">
+        <f t="shared" si="5"/>
+        <v>7.0185990561673073E-2</v>
+      </c>
+      <c r="T29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.11387315723487967</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -4640,8 +4954,28 @@
       <c r="O30" s="2">
         <v>0.2039</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="P30" s="59">
+        <f>P28/P3</f>
+        <v>0.37132548423851119</v>
+      </c>
+      <c r="Q30" s="59">
+        <f t="shared" ref="Q30:T30" si="6">Q28/Q3</f>
+        <v>0.37445337712681653</v>
+      </c>
+      <c r="R30" s="59">
+        <f t="shared" si="6"/>
+        <v>0.39283182784754911</v>
+      </c>
+      <c r="S30" s="59">
+        <f t="shared" si="6"/>
+        <v>0.38852123085192153</v>
+      </c>
+      <c r="T30" s="59">
+        <f t="shared" si="6"/>
+        <v>0.41596706490151758</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -4687,8 +5021,23 @@
       <c r="O31" s="12">
         <v>6.69</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="P31" s="60">
+        <v>11.08</v>
+      </c>
+      <c r="Q31" s="60">
+        <v>11.11</v>
+      </c>
+      <c r="R31" s="60">
+        <v>12.25</v>
+      </c>
+      <c r="S31" s="60">
+        <v>13.11</v>
+      </c>
+      <c r="T31" s="60">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -4831,7 +5180,7 @@
     </row>
     <row r="35" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -4839,51 +5188,51 @@
         <v>0</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:O35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:O35" si="7">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.8987341772151898E-3</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7121116043119847E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.740648379052369E-3</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.6770186335403725E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.6652412950519244E-3</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.7167381974248927E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.5558328134747345E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.0103492884864166E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.18944260040431266</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.7231093729950078E-3</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.6274620146314015E-4</v>
       </c>
     </row>
@@ -4892,46 +5241,46 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="21" x14ac:dyDescent="0.25">
@@ -4939,46 +5288,46 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -4986,7 +5335,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>9644000</v>
@@ -5033,7 +5382,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1">
         <v>1131000</v>
@@ -5063,7 +5412,7 @@
         <v>772000000</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1">
         <v>30000000</v>
@@ -5080,7 +5429,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>10775000</v>
@@ -5127,7 +5476,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>3373104000</v>
@@ -5174,7 +5523,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1">
         <v>836270000</v>
@@ -5221,7 +5570,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>3998344000</v>
@@ -5268,7 +5617,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10">
         <v>8218493000</v>
@@ -5315,7 +5664,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1">
         <v>2357563000</v>
@@ -5362,7 +5711,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1">
         <v>6197182000</v>
@@ -5409,7 +5758,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1">
         <v>3691178000</v>
@@ -5456,7 +5805,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1">
         <v>9888360000</v>
@@ -5503,7 +5852,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1">
         <v>137360000</v>
@@ -5550,7 +5899,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1">
         <v>532929000</v>
@@ -5559,37 +5908,37 @@
         <v>919650000</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5597,13 +5946,13 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1">
         <v>835000000</v>
@@ -5644,7 +5993,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1">
         <v>12916212000</v>
@@ -5691,46 +6040,46 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5738,7 +6087,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>21134705000</v>
@@ -5785,7 +6134,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>356784000</v>
@@ -5824,7 +6173,7 @@
         <v>2882000000</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5832,13 +6181,13 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1">
         <v>1042000000</v>
@@ -5879,46 +6228,46 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5926,46 +6275,46 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5973,7 +6322,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1">
         <v>3404464000</v>
@@ -6020,7 +6369,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10">
         <v>3761248000</v>
@@ -6067,13 +6416,13 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1">
         <v>14630000000</v>
@@ -6114,46 +6463,46 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -6161,13 +6510,13 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1">
         <v>360000000</v>
@@ -6208,7 +6557,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>1670458000</v>
@@ -6255,7 +6604,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1">
         <v>1670458000</v>
@@ -6302,46 +6651,46 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -6349,7 +6698,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>5431706000</v>
@@ -6396,13 +6745,13 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1">
         <v>3713000000</v>
@@ -6443,16 +6792,16 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F69" s="1">
         <v>1567000000</v>
@@ -6490,7 +6839,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1">
         <v>288289000</v>
@@ -6537,7 +6886,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>15414710000</v>
@@ -6546,7 +6895,7 @@
         <v>12248879000</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" s="1">
         <v>3351000000</v>
@@ -6584,7 +6933,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>15702999000</v>
@@ -6631,7 +6980,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>21134705000</v>
@@ -6678,46 +7027,46 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="21" x14ac:dyDescent="0.25">
@@ -6725,46 +7074,46 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -6866,28 +7215,28 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J78" s="1">
         <v>1242000000</v>
@@ -6896,7 +7245,7 @@
         <v>424000000</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M78" s="1">
         <v>-2325000000</v>
@@ -6957,62 +7306,62 @@
     </row>
     <row r="80" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:O80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:O80" si="8">B79/B3</f>
         <v>1.1025456522479358E-2</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0679114976339686E-2</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.3428375257417311E-3</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0174102285092492E-2</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.128259712613092E-2</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2074148296593186E-2</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.233649765956516E-2</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3768624697714331E-2</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.29359228806351E-2</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.28537843861631E-2</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2926110743702278E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6439612260937909E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2313824581383349E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1558204430357943E-2</v>
       </c>
     </row>
@@ -7080,13 +7429,13 @@
         <v>223000000</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1">
         <v>-71000000</v>
@@ -7156,10 +7505,10 @@
       <c r="O83" s="1">
         <v>-686000000</v>
       </c>
-      <c r="V83" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="W83" s="58"/>
+      <c r="V83" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="W83" s="65"/>
     </row>
     <row r="84" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7207,17 +7556,17 @@
       <c r="O84" s="1">
         <v>1605000000</v>
       </c>
-      <c r="V84" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="W84" s="60"/>
+      <c r="V84" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="W84" s="66"/>
     </row>
     <row r="85" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1">
         <v>4457245000</v>
@@ -7256,12 +7605,12 @@
         <v>-1290000000</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V85" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="W85" s="24">
+        <v>91</v>
+      </c>
+      <c r="V85" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="W85" s="35">
         <f>O17</f>
         <v>-2044000000</v>
       </c>
@@ -7310,12 +7659,12 @@
         <v>4235000000</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V86" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="W86" s="24">
+        <v>91</v>
+      </c>
+      <c r="V86" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="W86" s="35">
         <f>O56</f>
         <v>4136000000</v>
       </c>
@@ -7366,10 +7715,10 @@
       <c r="O87" s="10">
         <v>24943000000</v>
       </c>
-      <c r="V87" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="W87" s="24">
+      <c r="V87" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="W87" s="35">
         <f>O61</f>
         <v>59135000000</v>
       </c>
@@ -7420,78 +7769,78 @@
       <c r="O88" s="1">
         <v>-695000000</v>
       </c>
-      <c r="V88" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="W88" s="32">
+      <c r="V88" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="W88" s="37">
         <f>W85/(W86+W87)</f>
         <v>-3.2305479603609868E-2</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:O89" si="9">(-1*B88)/B3</f>
+        <v>2.1989636276297301E-2</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.864816472694718E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.038041725753529E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.8117519042437431E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.613092070250133E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0661322645290583E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.3273109059888886E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.868320461814494E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.8748227955769775E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.9479131682593961E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.6593518908194552E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.7422059208802725E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.4004306279694645E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.1971612636510835E-2</v>
+      </c>
+      <c r="V89" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:O89" si="7">(-1*B88)/B3</f>
-        <v>2.1989636276297301E-2</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.864816472694718E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.038041725753529E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.8117519042437431E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.613092070250133E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.0661322645290583E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.3273109059888886E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.868320461814494E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.8748227955769775E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.9479131682593961E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.6593518908194552E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.7422059208802725E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.4004306279694645E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.1971612636510835E-2</v>
-      </c>
-      <c r="V89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="W89" s="24">
+      <c r="W89" s="35">
         <f>O27</f>
         <v>1632000000</v>
       </c>
@@ -7542,10 +7891,10 @@
       <c r="O90" s="1">
         <v>-255000000</v>
       </c>
-      <c r="V90" s="23" t="s">
+      <c r="V90" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="W90" s="24">
+      <c r="W90" s="35">
         <f>O25</f>
         <v>13477000000</v>
       </c>
@@ -7596,10 +7945,10 @@
       <c r="O91" s="1">
         <v>-1438000000</v>
       </c>
-      <c r="V91" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="W91" s="32">
+      <c r="V91" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="W91" s="37">
         <f>W89/W90</f>
         <v>0.12109519922831491</v>
       </c>
@@ -7650,10 +7999,10 @@
       <c r="O92" s="1">
         <v>1530000000</v>
       </c>
-      <c r="V92" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="W92" s="34">
+      <c r="V92" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="W92" s="37">
         <f>W88*(1-W91)</f>
         <v>-2.8393441114844469E-2</v>
       </c>
@@ -7672,13 +8021,13 @@
         <v>1870241000</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H93" s="1">
         <v>19000000</v>
@@ -7687,10 +8036,10 @@
         <v>118000000</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L93" s="1">
         <v>167000000</v>
@@ -7704,10 +8053,10 @@
       <c r="O93" s="1">
         <v>235000000</v>
       </c>
-      <c r="V93" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="W93" s="60"/>
+      <c r="V93" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="W93" s="66"/>
     </row>
     <row r="94" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7755,11 +8104,12 @@
       <c r="O94" s="10">
         <v>-623000000</v>
       </c>
-      <c r="V94" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="W94" s="35">
-        <v>4.095E-2</v>
+      <c r="V94" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="W94" s="38">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -7770,19 +8120,19 @@
         <v>-34766000</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1">
         <v>-21086000</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1">
         <v>-4018000000</v>
@@ -7808,10 +8158,10 @@
       <c r="O95" s="1">
         <v>-14433000000</v>
       </c>
-      <c r="V95" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="W95" s="61" cm="1">
+      <c r="V95" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="W95" s="39" cm="1">
         <f t="array" ref="W95">_FV(A1,"Beta")</f>
         <v>0.55359999999999998</v>
       </c>
@@ -7821,51 +8171,51 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V96" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="W96" s="35">
+        <v>91</v>
+      </c>
+      <c r="V96" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="W96" s="38">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -7874,16 +8224,16 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1">
         <v>-320000000</v>
@@ -7915,12 +8265,12 @@
       <c r="O97" s="1">
         <v>-1487000000</v>
       </c>
-      <c r="V97" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="W97" s="34">
+      <c r="V97" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="W97" s="37">
         <f>(W94)+((W95)*(W96-W94))</f>
-        <v>6.4782480000000003E-2</v>
+        <v>6.3965568E-2</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -7928,16 +8278,16 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1">
         <v>-2555000000</v>
@@ -7969,10 +8319,10 @@
       <c r="O98" s="1">
         <v>-10043000000</v>
       </c>
-      <c r="V98" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="W98" s="60"/>
+      <c r="V98" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="W98" s="66"/>
     </row>
     <row r="99" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -8020,10 +8370,10 @@
       <c r="O99" s="1">
         <v>1160000000</v>
       </c>
-      <c r="V99" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="W99" s="24">
+      <c r="V99" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="W99" s="35">
         <f>W86+W87</f>
         <v>63271000000</v>
       </c>
@@ -8074,10 +8424,10 @@
       <c r="O100" s="10">
         <v>-24803000000</v>
       </c>
-      <c r="V100" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="W100" s="32">
+      <c r="V100" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="W100" s="37">
         <f>W99/W103</f>
         <v>0.19655588637922325</v>
       </c>
@@ -8087,13 +8437,13 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1">
         <v>16000000</v>
@@ -8128,10 +8478,10 @@
       <c r="O101" s="1">
         <v>-62000000</v>
       </c>
-      <c r="V101" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="W101" s="47" cm="1">
+      <c r="V101" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="W101" s="40" cm="1">
         <f t="array" ref="W101">_FV(A1,"Market cap",TRUE)</f>
         <v>258627271100</v>
       </c>
@@ -8182,10 +8532,10 @@
       <c r="O102" s="10">
         <v>-545000000</v>
       </c>
-      <c r="V102" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="W102" s="32">
+      <c r="V102" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="W102" s="37">
         <f>W101/W103</f>
         <v>0.80344411362077672</v>
       </c>
@@ -8198,7 +8548,7 @@
         <v>207000</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1">
         <v>9644000</v>
@@ -8236,15 +8586,15 @@
       <c r="O103" s="1">
         <v>9746000000</v>
       </c>
-      <c r="V103" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="W103" s="36">
+      <c r="V103" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="W103" s="41">
         <f>W99+W101</f>
         <v>321898271100</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -8290,308 +8640,365 @@
       <c r="O104" s="11">
         <v>9201000000</v>
       </c>
-      <c r="V104" s="59" t="s">
+      <c r="V104" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="W104" s="66"/>
+    </row>
+    <row r="105" spans="1:23" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:N105" si="10">(B22*(1-$W$91))+B77+B88+B81</f>
+        <v>5223245423.0169916</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>4015793945.2400379</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>4805119737.1076651</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="10"/>
+        <v>5308589226.088892</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>6042116791.5708246</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>2383944275.4322181</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>7432305483.4161901</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>7268642650.441494</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>9411454849.0020027</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>5611049343.3256655</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>11546821028.418787</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>15765995251.168657</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>22165489649.031685</v>
+      </c>
+      <c r="O105" s="1">
+        <f>(O22*(1-$W$91))+O77+O88+O81</f>
+        <v>30198714921.718483</v>
+      </c>
+      <c r="P105" s="28">
+        <f>O105*(1+$W$106)</f>
+        <v>30649532149.899055</v>
+      </c>
+      <c r="Q105" s="28">
+        <f t="shared" ref="Q105:T105" si="11">P105*(1+$W$106)</f>
+        <v>31107079339.064766</v>
+      </c>
+      <c r="R105" s="28">
+        <f t="shared" si="11"/>
+        <v>31571456956.482677</v>
+      </c>
+      <c r="S105" s="28">
+        <f t="shared" si="11"/>
+        <v>32042766969.23119</v>
+      </c>
+      <c r="T105" s="28">
+        <f t="shared" si="11"/>
+        <v>32521112866.589752</v>
+      </c>
+      <c r="U105" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="V105" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="W105" s="43">
+        <f>(W100*W92)+(W102*W97)</f>
+        <v>4.5811861098324982E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:O106" si="12">(C107/B107)-1</f>
+        <v>-0.10421263396502034</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.30111417844522959</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="12"/>
+        <v>2.0462721794058947E-2</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="12"/>
+        <v>-3.9254823685961449E-2</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.491516620498615</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="12"/>
+        <v>1.3844058563159685</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="12"/>
+        <v>-6.2973011566471504E-2</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.4372142639439196</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.35605980277807237</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.3292673391195331E-3</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.31459442530535542</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.3097081596188207</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.10268303774442922</v>
+      </c>
+      <c r="P106" s="61">
+        <v>22016000000</v>
+      </c>
+      <c r="Q106" s="61">
+        <v>22505000000</v>
+      </c>
+      <c r="R106" s="61">
+        <v>24565000000</v>
+      </c>
+      <c r="S106" s="61">
+        <v>26344000000</v>
+      </c>
+      <c r="T106" s="61">
+        <f>S106*1.04</f>
+        <v>27397760000</v>
+      </c>
+      <c r="U106" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="V106" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="W106" s="45">
+        <f>(SUM(P4:T4)/5)</f>
+        <v>1.4928358022822797E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1">
+        <v>5054771000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>4528000000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>5891445000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>6012000000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>5776000000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>2937000000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>7003000000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>6562000000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>9431000000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>12789000000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>12772000000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>16790000000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>21990000000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>24248000000</v>
+      </c>
+      <c r="P107" s="25"/>
+      <c r="Q107" s="25"/>
+      <c r="R107" s="25"/>
+      <c r="S107" s="25"/>
+      <c r="T107" s="62">
+        <f>T106*(1+W107)/(W108-W107)</f>
+        <v>902533161215.36572</v>
+      </c>
+      <c r="U107" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="W104" s="60"/>
-    </row>
-    <row r="105" spans="1:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>-0.10421263396502034</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>0.30111417844522959</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>2.0462721794058947E-2</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-3.9254823685961449E-2</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-0.491516620498615</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:O105" si="8">(H106/G106)-1</f>
-        <v>1.3844058563159685</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>-6.2973011566471504E-2</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.4372142639439196</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.35605980277807237</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.3292673391195331E-3</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.31459442530535542</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.3097081596188207</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.10268303774442922</v>
-      </c>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="15"/>
-      <c r="S105" s="15"/>
-      <c r="T105" s="15"/>
-      <c r="U105" s="15"/>
-      <c r="V105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="W105" s="26">
-        <f>(W100*W92)+(W102*W97)</f>
-        <v>4.6468204236071162E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>5054771000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>4528000000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>5891445000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>6012000000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>5776000000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>2937000000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>7003000000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>6562000000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>9431000000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>12789000000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>12772000000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>16790000000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>21990000000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>24248000000</v>
-      </c>
-      <c r="P106" s="62">
-        <f>O106*(1+$W$106)</f>
-        <v>24598432101.52042</v>
-      </c>
-      <c r="Q106" s="62">
-        <f t="shared" ref="Q106:T106" si="9">P106*(1+$W$106)</f>
-        <v>24953928647.851791</v>
-      </c>
-      <c r="R106" s="62">
-        <f t="shared" si="9"/>
-        <v>25314562830.351681</v>
-      </c>
-      <c r="S106" s="62">
-        <f t="shared" si="9"/>
-        <v>25680408898.13916</v>
-      </c>
-      <c r="T106" s="62">
-        <f t="shared" si="9"/>
-        <v>26051542173.381596</v>
-      </c>
-      <c r="U106" s="37" t="s">
+      <c r="V107" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="V106" s="38" t="s">
+      <c r="W107" s="47">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="P108" s="62">
+        <f t="shared" ref="P108:R108" si="13">P107+P106</f>
+        <v>22016000000</v>
+      </c>
+      <c r="Q108" s="62">
+        <f t="shared" si="13"/>
+        <v>22505000000</v>
+      </c>
+      <c r="R108" s="62">
+        <f t="shared" si="13"/>
+        <v>24565000000</v>
+      </c>
+      <c r="S108" s="62">
+        <f>S107+S106</f>
+        <v>26344000000</v>
+      </c>
+      <c r="T108" s="62">
+        <f>T107+T106</f>
+        <v>929930921215.36572</v>
+      </c>
+      <c r="U108" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="V108" s="48" t="s">
         <v>146</v>
-      </c>
-      <c r="W106" s="39">
-        <f>(SUM(P4:T4)/5)</f>
-        <v>1.4452000227664819E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="37"/>
-      <c r="Q107" s="37"/>
-      <c r="R107" s="37"/>
-      <c r="S107" s="37"/>
-      <c r="T107" s="40">
-        <f>T106*(1+W107)/(W108-W107)</f>
-        <v>1003943175738.2252</v>
-      </c>
-      <c r="U107" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="V107" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="W107" s="43">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="P108" s="40">
-        <f t="shared" ref="P108:R108" si="10">P107+P106</f>
-        <v>24598432101.52042</v>
-      </c>
-      <c r="Q108" s="40">
-        <f t="shared" si="10"/>
-        <v>24953928647.851791</v>
-      </c>
-      <c r="R108" s="40">
-        <f t="shared" si="10"/>
-        <v>25314562830.351681</v>
-      </c>
-      <c r="S108" s="40">
-        <f>S107+S106</f>
-        <v>25680408898.13916</v>
-      </c>
-      <c r="T108" s="40">
-        <f>T107+T106</f>
-        <v>1029994717911.6068</v>
-      </c>
-      <c r="U108" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="V108" s="44" t="s">
-        <v>149</v>
       </c>
       <c r="W108" s="45">
         <f>W105</f>
-        <v>4.6468204236071162E-2</v>
+        <v>4.5811861098324982E-2</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="P109" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q109" s="56"/>
+      <c r="P109" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q109" s="63"/>
     </row>
     <row r="110" spans="1:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="P110" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q110" s="47">
+      <c r="P110" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q110" s="40">
         <f>NPV(W108,P108,Q108,R108,S108,T108)</f>
-        <v>910535463677.45728</v>
+        <v>828458856844.80115</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="P111" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q111" s="47">
+      <c r="P111" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q111" s="40">
         <f>O40</f>
         <v>9229000000</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="P112" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q112" s="47">
+      <c r="P112" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q112" s="40">
         <f>W99</f>
         <v>63271000000</v>
       </c>
     </row>
     <row r="113" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P113" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q113" s="47">
+      <c r="P113" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q113" s="40">
         <f>Q110+Q111-Q112</f>
-        <v>856493463677.45728</v>
+        <v>774416856844.80115</v>
       </c>
     </row>
     <row r="114" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P114" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q114" s="48">
+      <c r="P114" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q114" s="49">
         <f>O34*(1+(5*U16))</f>
         <v>1993256476.9573853</v>
       </c>
     </row>
     <row r="115" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P115" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q115" s="50">
+      <c r="P115" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q115" s="51">
         <f>Q113/Q114</f>
-        <v>429.6955628032652</v>
+        <v>388.51841988087403</v>
       </c>
     </row>
     <row r="116" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P116" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q116" s="63" cm="1">
+      <c r="P116" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q116" s="52" cm="1">
         <f t="array" ref="Q116">_FV(A1,"Price")</f>
         <v>146.59</v>
       </c>
     </row>
     <row r="117" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P117" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q117" s="52">
+      <c r="P117" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q117" s="53">
         <f>Q115/Q116-1</f>
-        <v>1.9312747309043261</v>
+        <v>1.6503746495727816</v>
       </c>
     </row>
     <row r="118" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P118" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q118" s="53" t="str">
+      <c r="P118" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q118" s="54" t="str">
         <f>IF(Q115&gt;Q116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
@@ -8635,9 +9042,10 @@
     <hyperlink ref="N74" r:id="rId27" tooltip="https://www.sec.gov/Archives/edgar/data/1551152/000155115222000007/0001551152-22-000007-index.htm" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="O36" r:id="rId28" tooltip="https://www.sec.gov/Archives/edgar/data/1551152/000155115223000011/0001551152-23-000011-index.htm" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
     <hyperlink ref="O74" r:id="rId29" tooltip="https://www.sec.gov/Archives/edgar/data/1551152/000155115223000011/0001551152-23-000011-index.htm" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="P1" r:id="rId30" display="https://finbox.com/NASDAQGS:PANW/explorer/revenue_proj" xr:uid="{9217E21B-EE13-FF49-AD0F-251DBE6E23FF}"/>
+    <hyperlink ref="P1" r:id="rId30" display="https://finbox.com/NYSE:ABBV/explorer/revenue_proj" xr:uid="{9217E21B-EE13-FF49-AD0F-251DBE6E23FF}"/>
+    <hyperlink ref="U106" r:id="rId31" xr:uid="{073B4024-2342-5D4F-861C-00C88BDE6AB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId31"/>
+  <drawing r:id="rId32"/>
 </worksheet>
 </file>